--- a/data/mapping/mapping-activities-specialism.xlsx
+++ b/data/mapping/mapping-activities-specialism.xlsx
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mapping Specialism - Activity'!$A$4:$EY$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mapping Specialism - Activity'!$A$4:$HB$4</definedName>
     <definedName name="Directors">[1]Definitions!$B$75:$C$96</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'Mapping Specialism - Activity'!#REF!</definedName>
     <definedName name="HML">[2]Data!$B$2:$B$4</definedName>
@@ -27,13 +27,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -50,15 +46,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Univers 45 Light"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Univers 45 Light"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,6 +53,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -75,7 +63,33 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Univers 45 Light"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -200,53 +214,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="%_HMD_ROLE_MAPPING_UserTemplate_4_3_2 BRS" xfId="1"/>
@@ -489,13 +505,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1876425</xdr:colOff>
+      <xdr:colOff>1866900</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>285753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
@@ -506,7 +522,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1876425" y="466728"/>
+          <a:off x="1866900" y="466728"/>
           <a:ext cx="571500" cy="9522"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1219,166 +1235,166 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:EY5"/>
+  <dimension ref="A1:EY4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="7" customWidth="1"/>
-    <col min="2" max="210" width="28" style="1" customWidth="1"/>
-    <col min="211" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="36.5703125" style="14" customWidth="1"/>
+    <col min="2" max="210" width="28" style="6" customWidth="1"/>
+    <col min="211" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="6" customFormat="1" ht="6" customHeight="1">
-      <c r="A1" s="14"/>
+    <row r="1" spans="1:155" s="8" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
     </row>
-    <row r="2" spans="1:155" s="16" customFormat="1" ht="8.25" customHeight="1">
-      <c r="A2" s="15"/>
+    <row r="2" spans="1:155" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
     </row>
-    <row r="3" spans="1:155" s="13" customFormat="1" ht="88.5" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
-      <c r="BQ3" s="11"/>
-      <c r="BR3" s="11"/>
-      <c r="BS3" s="11"/>
-      <c r="BT3" s="11"/>
-      <c r="BU3" s="11"/>
-      <c r="BV3" s="11"/>
-      <c r="BW3" s="11"/>
-      <c r="BX3" s="11"/>
-      <c r="BY3" s="11"/>
-      <c r="BZ3" s="11"/>
-      <c r="CA3" s="11"/>
-      <c r="CB3" s="11"/>
-      <c r="CC3" s="11"/>
-      <c r="CD3" s="11"/>
-      <c r="CE3" s="11"/>
-      <c r="CF3" s="11"/>
-      <c r="CG3" s="11"/>
-      <c r="CH3" s="11"/>
-      <c r="CI3" s="11"/>
-      <c r="CJ3" s="11"/>
-      <c r="CK3" s="11"/>
-      <c r="CL3" s="11"/>
-      <c r="CM3" s="11"/>
-      <c r="CN3" s="11"/>
-      <c r="CO3" s="11"/>
-      <c r="CP3" s="11"/>
-      <c r="CQ3" s="11"/>
-      <c r="CR3" s="11"/>
-      <c r="CS3" s="11"/>
-      <c r="CT3" s="11"/>
-      <c r="CU3" s="11"/>
-      <c r="CV3" s="11"/>
-      <c r="CW3" s="11"/>
-      <c r="CX3" s="11"/>
-      <c r="CY3" s="11"/>
-      <c r="CZ3" s="11"/>
-      <c r="DA3" s="11"/>
-      <c r="DB3" s="11"/>
-      <c r="DC3" s="11"/>
-      <c r="DD3" s="11"/>
-      <c r="DE3" s="11"/>
-      <c r="DF3" s="11"/>
-      <c r="DG3" s="11"/>
-      <c r="DH3" s="11"/>
-      <c r="DI3" s="11"/>
-      <c r="DJ3" s="11"/>
-      <c r="DK3" s="11"/>
-      <c r="DL3" s="11"/>
-      <c r="DM3" s="11"/>
-      <c r="DN3" s="11"/>
-      <c r="DO3" s="11"/>
-      <c r="DP3" s="11"/>
-      <c r="DQ3" s="11"/>
-      <c r="DR3" s="11"/>
-      <c r="DS3" s="11"/>
-      <c r="DT3" s="11"/>
-      <c r="DU3" s="11"/>
-      <c r="DV3" s="11"/>
-      <c r="DW3" s="11"/>
-      <c r="DX3" s="11"/>
-      <c r="DY3" s="11"/>
-      <c r="DZ3" s="11"/>
-      <c r="EA3" s="11"/>
-      <c r="EB3" s="11"/>
-      <c r="EC3" s="11"/>
-      <c r="ED3" s="11"/>
-      <c r="EE3" s="11"/>
-      <c r="EF3" s="11"/>
-      <c r="EG3" s="11"/>
+    <row r="3" spans="1:155" s="13" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="12"/>
+      <c r="BM3" s="12"/>
+      <c r="BN3" s="12"/>
+      <c r="BO3" s="12"/>
+      <c r="BP3" s="12"/>
+      <c r="BQ3" s="12"/>
+      <c r="BR3" s="12"/>
+      <c r="BS3" s="12"/>
+      <c r="BT3" s="12"/>
+      <c r="BU3" s="12"/>
+      <c r="BV3" s="12"/>
+      <c r="BW3" s="12"/>
+      <c r="BX3" s="12"/>
+      <c r="BY3" s="12"/>
+      <c r="BZ3" s="12"/>
+      <c r="CA3" s="12"/>
+      <c r="CB3" s="12"/>
+      <c r="CC3" s="12"/>
+      <c r="CD3" s="12"/>
+      <c r="CE3" s="12"/>
+      <c r="CF3" s="12"/>
+      <c r="CG3" s="12"/>
+      <c r="CH3" s="12"/>
+      <c r="CI3" s="12"/>
+      <c r="CJ3" s="12"/>
+      <c r="CK3" s="12"/>
+      <c r="CL3" s="12"/>
+      <c r="CM3" s="12"/>
+      <c r="CN3" s="12"/>
+      <c r="CO3" s="12"/>
+      <c r="CP3" s="12"/>
+      <c r="CQ3" s="12"/>
+      <c r="CR3" s="12"/>
+      <c r="CS3" s="12"/>
+      <c r="CT3" s="12"/>
+      <c r="CU3" s="12"/>
+      <c r="CV3" s="12"/>
+      <c r="CW3" s="12"/>
+      <c r="CX3" s="12"/>
+      <c r="CY3" s="12"/>
+      <c r="CZ3" s="12"/>
+      <c r="DA3" s="12"/>
+      <c r="DB3" s="12"/>
+      <c r="DC3" s="12"/>
+      <c r="DD3" s="12"/>
+      <c r="DE3" s="12"/>
+      <c r="DF3" s="12"/>
+      <c r="DG3" s="12"/>
+      <c r="DH3" s="12"/>
+      <c r="DI3" s="12"/>
+      <c r="DJ3" s="12"/>
+      <c r="DK3" s="12"/>
+      <c r="DL3" s="12"/>
+      <c r="DM3" s="12"/>
+      <c r="DN3" s="12"/>
+      <c r="DO3" s="12"/>
+      <c r="DP3" s="12"/>
+      <c r="DQ3" s="12"/>
+      <c r="DR3" s="12"/>
+      <c r="DS3" s="12"/>
+      <c r="DT3" s="12"/>
+      <c r="DU3" s="12"/>
+      <c r="DV3" s="12"/>
+      <c r="DW3" s="12"/>
+      <c r="DX3" s="12"/>
+      <c r="DY3" s="12"/>
+      <c r="DZ3" s="12"/>
+      <c r="EA3" s="12"/>
+      <c r="EB3" s="12"/>
+      <c r="EC3" s="12"/>
+      <c r="ED3" s="12"/>
+      <c r="EE3" s="12"/>
+      <c r="EF3" s="12"/>
+      <c r="EG3" s="12"/>
       <c r="EH3" s="12"/>
       <c r="EI3" s="12"/>
       <c r="EJ3" s="12"/>
@@ -1398,8 +1414,8 @@
       <c r="EX3" s="12"/>
       <c r="EY3" s="12"/>
     </row>
-    <row r="4" spans="1:155" s="5" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="8"/>
+    <row r="4" spans="1:155" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1555,11 +1571,8 @@
       <c r="EX4" s="4"/>
       <c r="EY4" s="4"/>
     </row>
-    <row r="5" spans="1:155" s="2" customFormat="1">
-      <c r="A5" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:EY4"/>
+  <autoFilter ref="A4:HB4"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1578,6 +1591,384 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ContentTypeId="0x010109" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="General" ma:contentTypeID="0x0101090002A9BFB70928524F98202F9A34B833F70100C2EA550E6B4A74439F5945D0DD9F3754" ma:contentTypeVersion="57" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="f439cd5624696faba63ed122ddfb48f2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1a035045-18fd-432c-a5de-6497d89eeef1" xmlns:ns3="3a827281-27b5-422c-a54b-bb9b794c9526" xmlns:ns4="296ada00-b809-4a3e-b87e-6e6c5efe7723" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59d276b1db43b94d1b826cec67521e7c" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="1a035045-18fd-432c-a5de-6497d89eeef1"/>
+    <xsd:import namespace="3a827281-27b5-422c-a54b-bb9b794c9526"/>
+    <xsd:import namespace="296ada00-b809-4a3e-b87e-6e6c5efe7723"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns1:AverageRating" minOccurs="0"/>
+                <xsd:element ref="ns2:Delivery_x0020_Stream" minOccurs="0"/>
+                <xsd:element ref="ns2:BB_x0020_Status" minOccurs="0"/>
+                <xsd:element ref="ns3:Content_x0020_Owner"/>
+                <xsd:element ref="ns2:Document_x0020_Source_x0020_Link" minOccurs="0"/>
+                <xsd:element ref="ns2:BB_x0020_Keywords" minOccurs="0"/>
+                <xsd:element ref="ns2:BB_x0020_Description" minOccurs="0"/>
+                <xsd:element ref="ns1:RatingCount" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:b249b6a8f62b4bc7904c2f5bc1687ac3" minOccurs="0"/>
+                <xsd:element ref="ns2:p7f54e0c5c724ee0984058454c0cb3e3" minOccurs="0"/>
+                <xsd:element ref="ns2:o3583a83cab34062a8e9cec91a8b96c2" minOccurs="0"/>
+                <xsd:element ref="ns2:n3dcd34f14d14173a15c5e7b17b9407e" minOccurs="0"/>
+                <xsd:element ref="ns4:_dlc_DocIdPersistId" minOccurs="0"/>
+                <xsd:element ref="ns2:b28cb21585424c81a811c4e1bc4c5a60" minOccurs="0"/>
+                <xsd:element ref="ns2:b5489ffb3a31468a843bf304fbb03bd4" minOccurs="0"/>
+                <xsd:element ref="ns2:pbcd3bbf9c184baca9fdd3a5eb53df48" minOccurs="0"/>
+                <xsd:element ref="ns2:cc14bf1737424455b1020a98eb93ddb0" minOccurs="0"/>
+                <xsd:element ref="ns4:_dlc_DocIdUrl" minOccurs="0"/>
+                <xsd:element ref="ns2:he3cc7de101a4b15bc22e4e03cb53b52" minOccurs="0"/>
+                <xsd:element ref="ns2:l1d8d357f45743ed94acc3dfcbbb143b" minOccurs="0"/>
+                <xsd:element ref="ns2:f39c3348ff15467a8f593fbefec55be7" minOccurs="0"/>
+                <xsd:element ref="ns2:dd96fca6772e4867a9208609779574a7" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns2:a2560a1fc8734eaea64c5ed5193c1f4f" minOccurs="0"/>
+                <xsd:element ref="ns4:_dlc_DocId" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="AverageRating" ma:index="0" nillable="true" ma:displayName="Rating (0-5)" ma:decimals="2" ma:description="Average value of all the ratings that have been submitted" ma:internalName="AverageRating" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="RatingCount" ma:index="22" nillable="true" ma:displayName="Number of Ratings" ma:decimals="0" ma:description="Number of ratings submitted" ma:internalName="RatingCount" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Number"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1a035045-18fd-432c-a5de-6497d89eeef1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Delivery_x0020_Stream" ma:index="13" nillable="true" ma:displayName="Delivery Stream" ma:description="" ma:format="Dropdown" ma:internalName="Delivery_x0020_Stream">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Deploy"/>
+          <xsd:enumeration value="Sustain"/>
+          <xsd:enumeration value="All"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="BB_x0020_Status" ma:index="17" nillable="true" ma:displayName="Content Status" ma:default="Draft" ma:format="Dropdown" ma:internalName="BB_x0020_Status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Draft"/>
+          <xsd:enumeration value="Final"/>
+          <xsd:enumeration value="Decommissioned"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Document_x0020_Source_x0020_Link" ma:index="19" nillable="true" ma:displayName="Document Source Link" ma:internalName="Document_x0020_Source_x0020_Link">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="BB_x0020_Keywords" ma:index="20" nillable="true" ma:displayName="BB Keywords" ma:internalName="BB_x0020_Keywords">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="BB_x0020_Description" ma:index="21" nillable="true" ma:displayName="Doc Description" ma:internalName="BB_x0020_Description">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="b249b6a8f62b4bc7904c2f5bc1687ac3" ma:index="24" nillable="true" ma:taxonomy="true" ma:internalName="b249b6a8f62b4bc7904c2f5bc1687ac3" ma:taxonomyFieldName="Target_x0020_Subdiscipline" ma:displayName="Target Subdiscipline" ma:default="" ma:fieldId="{b249b6a8-f62b-4bc7-904c-2f5bc1687ac3}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="f9e9b1c0-658a-4811-a39b-ac15906d92da" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="p7f54e0c5c724ee0984058454c0cb3e3" ma:index="26" ma:taxonomy="true" ma:internalName="p7f54e0c5c724ee0984058454c0cb3e3" ma:taxonomyFieldName="BB_x0020_Function" ma:displayName="Source Function" ma:readOnly="false" ma:default="" ma:fieldId="{97f54e0c-5c72-4ee0-9840-58454c0cb3e3}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="02b2233d-c3a0-4411-b10d-2d9b2ec0dd95" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="o3583a83cab34062a8e9cec91a8b96c2" ma:index="28" nillable="true" ma:taxonomy="true" ma:internalName="o3583a83cab34062a8e9cec91a8b96c2" ma:taxonomyFieldName="OMS_x0020_Element" ma:displayName="OMS Element" ma:default="" ma:fieldId="{83583a83-cab3-4062-a8e9-cec91a8b96c2}" ma:taxonomyMulti="true" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="9bb3df60-caab-4f2e-8cfc-44e24a56d29d" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="n3dcd34f14d14173a15c5e7b17b9407e" ma:index="30" nillable="true" ma:taxonomy="true" ma:internalName="n3dcd34f14d14173a15c5e7b17b9407e" ma:taxonomyFieldName="OMS_x0020_SubElement" ma:displayName="OMS Subelement" ma:default="" ma:fieldId="{73dcd34f-14d1-4173-a15c-5e7b17b9407e}" ma:taxonomyMulti="true" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="512280e3-4b42-4f3c-8668-1a6be03b8fc7" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="b28cb21585424c81a811c4e1bc4c5a60" ma:index="33" nillable="true" ma:taxonomy="true" ma:internalName="b28cb21585424c81a811c4e1bc4c5a60" ma:taxonomyFieldName="Document_x0020_Type" ma:displayName="Document Classification" ma:default="" ma:fieldId="{b28cb215-8542-4c81-a811-c4e1bc4c5a60}" ma:taxonomyMulti="true" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="7c3c1517-7a3c-49f5-a5cc-031ce0613969" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="b5489ffb3a31468a843bf304fbb03bd4" ma:index="34" ma:taxonomy="true" ma:internalName="b5489ffb3a31468a843bf304fbb03bd4" ma:taxonomyFieldName="Source_x0020_Geo_x0020_Location" ma:displayName="Source Geo Location" ma:readOnly="false" ma:default="" ma:fieldId="{b5489ffb-3a31-468a-843b-f304fbb03bd4}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="4d149547-c425-4f27-9aee-ccc7ac383d40" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="pbcd3bbf9c184baca9fdd3a5eb53df48" ma:index="35" ma:taxonomy="true" ma:internalName="pbcd3bbf9c184baca9fdd3a5eb53df48" ma:taxonomyFieldName="BB_x0020_Discipline" ma:displayName="Source Discipline" ma:readOnly="false" ma:default="" ma:fieldId="{9bcd3bbf-9c18-4bac-a9fd-d3a5eb53df48}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="aebb2606-ecc3-4ebb-ba87-553e0bba5bb5" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="cc14bf1737424455b1020a98eb93ddb0" ma:index="36" nillable="true" ma:taxonomy="true" ma:internalName="cc14bf1737424455b1020a98eb93ddb0" ma:taxonomyFieldName="BB_x0020_Subdiscipline" ma:displayName="Source Subdiscipline" ma:default="" ma:fieldId="{cc14bf17-3742-4455-b102-0a98eb93ddb0}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="f9e9b1c0-658a-4811-a39b-ac15906d92da" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="he3cc7de101a4b15bc22e4e03cb53b52" ma:index="38" ma:taxonomy="true" ma:internalName="he3cc7de101a4b15bc22e4e03cb53b52" ma:taxonomyFieldName="BB_x0020_Region" ma:displayName="Target Geo Location" ma:readOnly="false" ma:default="" ma:fieldId="{1e3cc7de-101a-4b15-bc22-e4e03cb53b52}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="4d149547-c425-4f27-9aee-ccc7ac383d40" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="l1d8d357f45743ed94acc3dfcbbb143b" ma:index="39" nillable="true" ma:taxonomy="true" ma:internalName="l1d8d357f45743ed94acc3dfcbbb143b" ma:taxonomyFieldName="BB_x0020_IDMStage" ma:displayName="CVP Stage" ma:default="" ma:fieldId="{51d8d357-f457-43ed-94ac-c3dfcbbb143b}" ma:taxonomyMulti="true" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="afa2deb3-ac18-481a-91f9-1921e0719458" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="f39c3348ff15467a8f593fbefec55be7" ma:index="41" nillable="true" ma:taxonomy="true" ma:internalName="f39c3348ff15467a8f593fbefec55be7" ma:taxonomyFieldName="Release0" ma:displayName="Release" ma:readOnly="false" ma:default="" ma:fieldId="{f39c3348-ff15-467a-8f59-3fbefec55be7}" ma:taxonomyMulti="true" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="acd2d4e5-1f12-455a-91da-d45a98849891" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="dd96fca6772e4867a9208609779574a7" ma:index="43" ma:taxonomy="true" ma:internalName="dd96fca6772e4867a9208609779574a7" ma:taxonomyFieldName="Target_x0020_Function" ma:displayName="Target Function" ma:readOnly="false" ma:default="" ma:fieldId="{dd96fca6-772e-4867-a920-8609779574a7}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="02b2233d-c3a0-4411-b10d-2d9b2ec0dd95" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="a2560a1fc8734eaea64c5ed5193c1f4f" ma:index="45" ma:taxonomy="true" ma:internalName="a2560a1fc8734eaea64c5ed5193c1f4f" ma:taxonomyFieldName="Target_x0020_Discipline" ma:displayName="Target Discipline" ma:readOnly="false" ma:default="" ma:fieldId="{a2560a1f-c873-4eae-a64c-5ed5193c1f4f}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="aebb2606-ecc3-4ebb-ba87-553e0bba5bb5" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3a827281-27b5-422c-a54b-bb9b794c9526" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Content_x0020_Owner" ma:index="18" ma:displayName="Content Owner" ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="Content_x0020_Owner" ma:readOnly="false" ma:showField="ImnName">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="296ada00-b809-4a3e-b87e-6e6c5efe7723" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{12cf66c6-13ed-48e1-94ff-1a856dad4a60}" ma:internalName="TaxCatchAll" ma:readOnly="false" ma:showField="CatchAllData" ma:web="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdPersistId" ma:index="31" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdUrl" ma:index="37" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="44" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:description="" ma:hidden="true" ma:list="{12cf66c6-13ed-48e1-94ff-1a856dad4a60}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="1a035045-18fd-432c-a5de-6497d89eeef1">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocId" ma:index="46" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:internalName="_dlc_DocId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="32" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="2" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <BB_x0020_Keywords xmlns="1a035045-18fd-432c-a5de-6497d89eeef1" xsi:nil="true"/>
@@ -1681,384 +2072,6 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="General" ma:contentTypeID="0x0101090002A9BFB70928524F98202F9A34B833F70100C2EA550E6B4A74439F5945D0DD9F3754" ma:contentTypeVersion="57" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="f439cd5624696faba63ed122ddfb48f2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="1a035045-18fd-432c-a5de-6497d89eeef1" xmlns:ns3="3a827281-27b5-422c-a54b-bb9b794c9526" xmlns:ns4="296ada00-b809-4a3e-b87e-6e6c5efe7723" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59d276b1db43b94d1b826cec67521e7c" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="1a035045-18fd-432c-a5de-6497d89eeef1"/>
-    <xsd:import namespace="3a827281-27b5-422c-a54b-bb9b794c9526"/>
-    <xsd:import namespace="296ada00-b809-4a3e-b87e-6e6c5efe7723"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns1:AverageRating" minOccurs="0"/>
-                <xsd:element ref="ns2:Delivery_x0020_Stream" minOccurs="0"/>
-                <xsd:element ref="ns2:BB_x0020_Status" minOccurs="0"/>
-                <xsd:element ref="ns3:Content_x0020_Owner"/>
-                <xsd:element ref="ns2:Document_x0020_Source_x0020_Link" minOccurs="0"/>
-                <xsd:element ref="ns2:BB_x0020_Keywords" minOccurs="0"/>
-                <xsd:element ref="ns2:BB_x0020_Description" minOccurs="0"/>
-                <xsd:element ref="ns1:RatingCount" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:b249b6a8f62b4bc7904c2f5bc1687ac3" minOccurs="0"/>
-                <xsd:element ref="ns2:p7f54e0c5c724ee0984058454c0cb3e3" minOccurs="0"/>
-                <xsd:element ref="ns2:o3583a83cab34062a8e9cec91a8b96c2" minOccurs="0"/>
-                <xsd:element ref="ns2:n3dcd34f14d14173a15c5e7b17b9407e" minOccurs="0"/>
-                <xsd:element ref="ns4:_dlc_DocIdPersistId" minOccurs="0"/>
-                <xsd:element ref="ns2:b28cb21585424c81a811c4e1bc4c5a60" minOccurs="0"/>
-                <xsd:element ref="ns2:b5489ffb3a31468a843bf304fbb03bd4" minOccurs="0"/>
-                <xsd:element ref="ns2:pbcd3bbf9c184baca9fdd3a5eb53df48" minOccurs="0"/>
-                <xsd:element ref="ns2:cc14bf1737424455b1020a98eb93ddb0" minOccurs="0"/>
-                <xsd:element ref="ns4:_dlc_DocIdUrl" minOccurs="0"/>
-                <xsd:element ref="ns2:he3cc7de101a4b15bc22e4e03cb53b52" minOccurs="0"/>
-                <xsd:element ref="ns2:l1d8d357f45743ed94acc3dfcbbb143b" minOccurs="0"/>
-                <xsd:element ref="ns2:f39c3348ff15467a8f593fbefec55be7" minOccurs="0"/>
-                <xsd:element ref="ns2:dd96fca6772e4867a9208609779574a7" minOccurs="0"/>
-                <xsd:element ref="ns4:TaxCatchAllLabel" minOccurs="0"/>
-                <xsd:element ref="ns2:a2560a1fc8734eaea64c5ed5193c1f4f" minOccurs="0"/>
-                <xsd:element ref="ns4:_dlc_DocId" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="AverageRating" ma:index="0" nillable="true" ma:displayName="Rating (0-5)" ma:decimals="2" ma:description="Average value of all the ratings that have been submitted" ma:internalName="AverageRating" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="RatingCount" ma:index="22" nillable="true" ma:displayName="Number of Ratings" ma:decimals="0" ma:description="Number of ratings submitted" ma:internalName="RatingCount" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Number"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1a035045-18fd-432c-a5de-6497d89eeef1" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Delivery_x0020_Stream" ma:index="13" nillable="true" ma:displayName="Delivery Stream" ma:description="" ma:format="Dropdown" ma:internalName="Delivery_x0020_Stream">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Deploy"/>
-          <xsd:enumeration value="Sustain"/>
-          <xsd:enumeration value="All"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="BB_x0020_Status" ma:index="17" nillable="true" ma:displayName="Content Status" ma:default="Draft" ma:format="Dropdown" ma:internalName="BB_x0020_Status">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="Draft"/>
-          <xsd:enumeration value="Final"/>
-          <xsd:enumeration value="Decommissioned"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="Document_x0020_Source_x0020_Link" ma:index="19" nillable="true" ma:displayName="Document Source Link" ma:internalName="Document_x0020_Source_x0020_Link">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="BB_x0020_Keywords" ma:index="20" nillable="true" ma:displayName="BB Keywords" ma:internalName="BB_x0020_Keywords">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="BB_x0020_Description" ma:index="21" nillable="true" ma:displayName="Doc Description" ma:internalName="BB_x0020_Description">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="b249b6a8f62b4bc7904c2f5bc1687ac3" ma:index="24" nillable="true" ma:taxonomy="true" ma:internalName="b249b6a8f62b4bc7904c2f5bc1687ac3" ma:taxonomyFieldName="Target_x0020_Subdiscipline" ma:displayName="Target Subdiscipline" ma:default="" ma:fieldId="{b249b6a8-f62b-4bc7-904c-2f5bc1687ac3}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="f9e9b1c0-658a-4811-a39b-ac15906d92da" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="p7f54e0c5c724ee0984058454c0cb3e3" ma:index="26" ma:taxonomy="true" ma:internalName="p7f54e0c5c724ee0984058454c0cb3e3" ma:taxonomyFieldName="BB_x0020_Function" ma:displayName="Source Function" ma:readOnly="false" ma:default="" ma:fieldId="{97f54e0c-5c72-4ee0-9840-58454c0cb3e3}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="02b2233d-c3a0-4411-b10d-2d9b2ec0dd95" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="o3583a83cab34062a8e9cec91a8b96c2" ma:index="28" nillable="true" ma:taxonomy="true" ma:internalName="o3583a83cab34062a8e9cec91a8b96c2" ma:taxonomyFieldName="OMS_x0020_Element" ma:displayName="OMS Element" ma:default="" ma:fieldId="{83583a83-cab3-4062-a8e9-cec91a8b96c2}" ma:taxonomyMulti="true" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="9bb3df60-caab-4f2e-8cfc-44e24a56d29d" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="n3dcd34f14d14173a15c5e7b17b9407e" ma:index="30" nillable="true" ma:taxonomy="true" ma:internalName="n3dcd34f14d14173a15c5e7b17b9407e" ma:taxonomyFieldName="OMS_x0020_SubElement" ma:displayName="OMS Subelement" ma:default="" ma:fieldId="{73dcd34f-14d1-4173-a15c-5e7b17b9407e}" ma:taxonomyMulti="true" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="512280e3-4b42-4f3c-8668-1a6be03b8fc7" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="b28cb21585424c81a811c4e1bc4c5a60" ma:index="33" nillable="true" ma:taxonomy="true" ma:internalName="b28cb21585424c81a811c4e1bc4c5a60" ma:taxonomyFieldName="Document_x0020_Type" ma:displayName="Document Classification" ma:default="" ma:fieldId="{b28cb215-8542-4c81-a811-c4e1bc4c5a60}" ma:taxonomyMulti="true" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="7c3c1517-7a3c-49f5-a5cc-031ce0613969" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="b5489ffb3a31468a843bf304fbb03bd4" ma:index="34" ma:taxonomy="true" ma:internalName="b5489ffb3a31468a843bf304fbb03bd4" ma:taxonomyFieldName="Source_x0020_Geo_x0020_Location" ma:displayName="Source Geo Location" ma:readOnly="false" ma:default="" ma:fieldId="{b5489ffb-3a31-468a-843b-f304fbb03bd4}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="4d149547-c425-4f27-9aee-ccc7ac383d40" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="pbcd3bbf9c184baca9fdd3a5eb53df48" ma:index="35" ma:taxonomy="true" ma:internalName="pbcd3bbf9c184baca9fdd3a5eb53df48" ma:taxonomyFieldName="BB_x0020_Discipline" ma:displayName="Source Discipline" ma:readOnly="false" ma:default="" ma:fieldId="{9bcd3bbf-9c18-4bac-a9fd-d3a5eb53df48}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="aebb2606-ecc3-4ebb-ba87-553e0bba5bb5" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="cc14bf1737424455b1020a98eb93ddb0" ma:index="36" nillable="true" ma:taxonomy="true" ma:internalName="cc14bf1737424455b1020a98eb93ddb0" ma:taxonomyFieldName="BB_x0020_Subdiscipline" ma:displayName="Source Subdiscipline" ma:default="" ma:fieldId="{cc14bf17-3742-4455-b102-0a98eb93ddb0}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="f9e9b1c0-658a-4811-a39b-ac15906d92da" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="he3cc7de101a4b15bc22e4e03cb53b52" ma:index="38" ma:taxonomy="true" ma:internalName="he3cc7de101a4b15bc22e4e03cb53b52" ma:taxonomyFieldName="BB_x0020_Region" ma:displayName="Target Geo Location" ma:readOnly="false" ma:default="" ma:fieldId="{1e3cc7de-101a-4b15-bc22-e4e03cb53b52}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="4d149547-c425-4f27-9aee-ccc7ac383d40" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="l1d8d357f45743ed94acc3dfcbbb143b" ma:index="39" nillable="true" ma:taxonomy="true" ma:internalName="l1d8d357f45743ed94acc3dfcbbb143b" ma:taxonomyFieldName="BB_x0020_IDMStage" ma:displayName="CVP Stage" ma:default="" ma:fieldId="{51d8d357-f457-43ed-94ac-c3dfcbbb143b}" ma:taxonomyMulti="true" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="afa2deb3-ac18-481a-91f9-1921e0719458" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="f39c3348ff15467a8f593fbefec55be7" ma:index="41" nillable="true" ma:taxonomy="true" ma:internalName="f39c3348ff15467a8f593fbefec55be7" ma:taxonomyFieldName="Release0" ma:displayName="Release" ma:readOnly="false" ma:default="" ma:fieldId="{f39c3348-ff15-467a-8f59-3fbefec55be7}" ma:taxonomyMulti="true" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="acd2d4e5-1f12-455a-91da-d45a98849891" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="dd96fca6772e4867a9208609779574a7" ma:index="43" ma:taxonomy="true" ma:internalName="dd96fca6772e4867a9208609779574a7" ma:taxonomyFieldName="Target_x0020_Function" ma:displayName="Target Function" ma:readOnly="false" ma:default="" ma:fieldId="{dd96fca6-772e-4867-a920-8609779574a7}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="02b2233d-c3a0-4411-b10d-2d9b2ec0dd95" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="a2560a1fc8734eaea64c5ed5193c1f4f" ma:index="45" ma:taxonomy="true" ma:internalName="a2560a1fc8734eaea64c5ed5193c1f4f" ma:taxonomyFieldName="Target_x0020_Discipline" ma:displayName="Target Discipline" ma:readOnly="false" ma:default="" ma:fieldId="{a2560a1f-c873-4eae-a64c-5ed5193c1f4f}" ma:sspId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ma:termSetId="7c8d02bb-e2e7-4745-ac81-5b69bf6571a0" ma:anchorId="aebb2606-ecc3-4ebb-ba87-553e0bba5bb5" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3a827281-27b5-422c-a54b-bb9b794c9526" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="Content_x0020_Owner" ma:index="18" ma:displayName="Content Owner" ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="Content_x0020_Owner" ma:readOnly="false" ma:showField="ImnName">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:User">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="296ada00-b809-4a3e-b87e-6e6c5efe7723" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{12cf66c6-13ed-48e1-94ff-1a856dad4a60}" ma:internalName="TaxCatchAll" ma:readOnly="false" ma:showField="CatchAllData" ma:web="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdPersistId" ma:index="31" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Boolean"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocIdUrl" ma:index="37" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:URL">
-            <xsd:sequence>
-              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
-              <xsd:element name="Description" type="xsd:string" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAllLabel" ma:index="44" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:description="" ma:hidden="true" ma:list="{12cf66c6-13ed-48e1-94ff-1a856dad4a60}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="1a035045-18fd-432c-a5de-6497d89eeef1">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="_dlc_DocId" ma:index="46" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:internalName="_dlc_DocId" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="32" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="2" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="f38c62bb-3e90-4570-a8c1-dc121624a19f" ContentTypeId="0x010109" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC8AA122-1302-48A5-B315-C3673BF866F5}">
   <ds:schemaRefs>
@@ -2068,41 +2081,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24CCDD65-15F1-451E-96D8-2928099F6A84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7FF559-BE89-4A1A-9D8A-3989B3C6A937}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3a827281-27b5-422c-a54b-bb9b794c9526"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="1a035045-18fd-432c-a5de-6497d89eeef1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="296ada00-b809-4a3e-b87e-6e6c5efe7723"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E83E2AB-B48E-44C4-B8EB-E6056420B98C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA07D598-9A98-4765-BFAC-8143C8F43016}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EF8F863-970A-43A6-B22E-CCAF24337F16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2123,10 +2109,37 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA07D598-9A98-4765-BFAC-8143C8F43016}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E83E2AB-B48E-44C4-B8EB-E6056420B98C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E7FF559-BE89-4A1A-9D8A-3989B3C6A937}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24CCDD65-15F1-451E-96D8-2928099F6A84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="1a035045-18fd-432c-a5de-6497d89eeef1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="296ada00-b809-4a3e-b87e-6e6c5efe7723"/>
+    <ds:schemaRef ds:uri="3a827281-27b5-422c-a54b-bb9b794c9526"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>